--- a/ziguinchor_jours_.xlsx
+++ b/ziguinchor_jours_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Ths\THESE\Premiere Partie\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EFDC29-3B06-459D-BA99-FEBD267F4BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DA3A00-EE47-4F08-8C80-469385A748CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,38 @@
     <sheet name="jours 2020" sheetId="1" r:id="rId1"/>
     <sheet name="jours 2050" sheetId="2" r:id="rId2"/>
     <sheet name="jours 2080" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="4" r:id="rId4"/>
+    <sheet name="jour type" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>2080</t>
   </si>
 </sst>
 </file>
@@ -107,6 +129,1241 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-SN"/>
+              <a:t>Ziguinchor -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-SN" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-SN"/>
+              <a:t>Jour</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-SN" baseline="0"/>
+              <a:t> Type 21 juin</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-SN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jour type'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'jour type'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8AC-410F-B6F5-F645BFCD3545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jour type'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'jour type'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8AC-410F-B6F5-F645BFCD3545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jour type'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2080</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'jour type'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>31.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F8AC-410F-B6F5-F645BFCD3545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="157004544"/>
+        <c:axId val="157001184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="157004544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157001184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="157001184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157004544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141FC652-7B6A-2800-CA61-46E7C5630CAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A9C3258-5CD2-4CAE-BA97-DBE56C86034E}" name="Tableau1" displayName="Tableau1" ref="A1:C25" totalsRowShown="0">
+  <autoFilter ref="A1:C25" xr:uid="{1A9C3258-5CD2-4CAE-BA97-DBE56C86034E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{200410C9-BAD6-4288-A6A4-B06549279DA5}" name="2020"/>
+    <tableColumn id="2" xr3:uid="{8946A792-E7D1-47F0-8B60-70EE28A343AF}" name="2050"/>
+    <tableColumn id="3" xr3:uid="{4BA372A7-576F-4F92-A31C-D043E6E632CF}" name="2080"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y365"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173:XFD173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28519,8 +29776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982A1F0F-9F96-4DBA-A2E7-403422691C4B}">
   <dimension ref="A1:Y365"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Y365"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173:XFD173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56639,8 +57896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE09655-9B98-4BA4-8BD8-ECFF5BCA4C3B}">
   <dimension ref="A1:Y365"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Y365"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173:XFD173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84756,15 +86013,295 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3FB372-7746-49AB-8E25-6F603108F785}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBEAD98-72A8-441B-8666-1F3AFA9422DB}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>30.2</v>
+      </c>
+      <c r="C2">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>30.2</v>
+      </c>
+      <c r="C3">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>28.2</v>
+      </c>
+      <c r="B4">
+        <v>29.4</v>
+      </c>
+      <c r="C4">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>29.2</v>
+      </c>
+      <c r="C5">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>29.2</v>
+      </c>
+      <c r="C6">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>27.4</v>
+      </c>
+      <c r="B7">
+        <v>28.6</v>
+      </c>
+      <c r="C7">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>28.2</v>
+      </c>
+      <c r="C8">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>29.2</v>
+      </c>
+      <c r="C9">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>29.4</v>
+      </c>
+      <c r="B10">
+        <v>30.6</v>
+      </c>
+      <c r="C10">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>30.9</v>
+      </c>
+      <c r="B11">
+        <v>32.1</v>
+      </c>
+      <c r="C11">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>31.9</v>
+      </c>
+      <c r="B12">
+        <v>33.1</v>
+      </c>
+      <c r="C12">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="B13">
+        <v>34.5</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>35.9</v>
+      </c>
+      <c r="B14">
+        <v>37.1</v>
+      </c>
+      <c r="C14">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>36.9</v>
+      </c>
+      <c r="B15">
+        <v>38.1</v>
+      </c>
+      <c r="C15">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="B16">
+        <v>37.9</v>
+      </c>
+      <c r="C16">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>35.9</v>
+      </c>
+      <c r="B17">
+        <v>37.1</v>
+      </c>
+      <c r="C17">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>33.9</v>
+      </c>
+      <c r="B18">
+        <v>35.1</v>
+      </c>
+      <c r="C18">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>33.1</v>
+      </c>
+      <c r="B19">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C19">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>32.9</v>
+      </c>
+      <c r="B20">
+        <v>34.1</v>
+      </c>
+      <c r="C20">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>31.2</v>
+      </c>
+      <c r="C21">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>29.5</v>
+      </c>
+      <c r="B22">
+        <v>30.7</v>
+      </c>
+      <c r="C22">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>30.2</v>
+      </c>
+      <c r="C23">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>30.2</v>
+      </c>
+      <c r="C24">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>28.3</v>
+      </c>
+      <c r="B25">
+        <v>29.5</v>
+      </c>
+      <c r="C25">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/ziguinchor_jours_.xlsx
+++ b/ziguinchor_jours_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Ths\THESE\Premiere Partie\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DA3A00-EE47-4F08-8C80-469385A748CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDD91D5-6C35-477E-833C-B159F644CB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,14 @@
     <sheet name="jours 2080" sheetId="3" r:id="rId3"/>
     <sheet name="jour type" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'jour type'!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'jour type'!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'jour type'!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'jour type'!$B$2:$B$25</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'jour type'!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'jour type'!$C$2:$C$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -152,11 +160,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -166,21 +173,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-SN"/>
-              <a:t>Ziguinchor -</a:t>
+              <a:t>Ziguinchor - Jour Type 21 juin</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="fr-SN" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-SN"/>
-              <a:t>Jour</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-SN" baseline="0"/>
-              <a:t> Type 21 juin</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-SN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -197,11 +191,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -216,8 +209,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -234,18 +227,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:yVal>
             <c:numRef>
               <c:f>'jour type'!$A$2:$A$25</c:f>
               <c:numCache>
@@ -325,8 +344,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F8AC-410F-B6F5-F645BFCD3545}"/>
@@ -348,18 +367,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:yVal>
             <c:numRef>
               <c:f>'jour type'!$B$2:$B$25</c:f>
               <c:numCache>
@@ -439,8 +484,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F8AC-410F-B6F5-F645BFCD3545}"/>
@@ -462,18 +507,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:yVal>
             <c:numRef>
               <c:f>'jour type'!$C$2:$C$25</c:f>
               <c:numCache>
@@ -553,8 +624,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F8AC-410F-B6F5-F645BFCD3545}"/>
@@ -569,76 +640,25 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="157004544"/>
         <c:axId val="157001184"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="157004544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="24"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="157001184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="157001184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="25"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -664,9 +684,72 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157001184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="157001184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="41"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -679,7 +762,7 @@
         </c:txPr>
         <c:crossAx val="157004544"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -690,7 +773,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -706,9 +789,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -726,11 +808,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -798,33 +883,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -833,38 +931,14 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -874,23 +948,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -898,84 +967,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -991,21 +1107,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1015,22 +1128,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1039,14 +1152,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1058,14 +1170,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1077,14 +1188,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1096,9 +1201,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1115,9 +1221,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1129,14 +1236,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1148,14 +1254,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1167,27 +1272,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1195,9 +1299,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1207,14 +1310,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1226,12 +1328,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1240,14 +1341,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1256,9 +1358,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1272,15 +1373,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1289,26 +1392,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1318,15 +1425,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -86017,7 +86124,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ziguinchor_jours_.xlsx
+++ b/ziguinchor_jours_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Ths\THESE\Premiere Partie\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDD91D5-6C35-477E-833C-B159F644CB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1789486C-59F0-476C-A3B1-E727592D84A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,6 @@
     <sheet name="jours 2080" sheetId="3" r:id="rId3"/>
     <sheet name="jour type" sheetId="5" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'jour type'!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'jour type'!$A$2:$A$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'jour type'!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'jour type'!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'jour type'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'jour type'!$C$2:$C$25</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -672,8 +686,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1426,12 +1441,12 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -86121,15 +86136,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBEAD98-72A8-441B-8666-1F3AFA9422DB}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -86140,7 +86155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>29</v>
       </c>
@@ -86151,7 +86166,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>29</v>
       </c>
@@ -86162,7 +86177,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>28.2</v>
       </c>
@@ -86173,7 +86188,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>28</v>
       </c>
@@ -86184,7 +86199,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>28</v>
       </c>
@@ -86195,7 +86210,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>27.4</v>
       </c>
@@ -86206,7 +86221,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>27</v>
       </c>
@@ -86216,8 +86231,16 @@
       <c r="C8">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <f>MAX(Tableau1[2050])-MAX(Tableau1[2020])</f>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">MAX(Tableau1[2080]-MAX(Tableau1[2020]))</f>
+        <v>2.7000000000000028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>28</v>
       </c>
@@ -86228,7 +86251,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>29.4</v>
       </c>
@@ -86239,7 +86262,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>30.9</v>
       </c>
@@ -86250,7 +86273,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>31.9</v>
       </c>
@@ -86261,7 +86284,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>33.299999999999997</v>
       </c>
@@ -86272,7 +86295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>35.9</v>
       </c>
@@ -86283,7 +86306,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>36.9</v>
       </c>
@@ -86294,7 +86317,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>36.700000000000003</v>
       </c>
